--- a/2022-10-30_anforderungsliste_laptop.xlsx
+++ b/2022-10-30_anforderungsliste_laptop.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thkoelnde.sharepoint.com/sites/SYEGruppeG656/Freigegebene Dokumente/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="11_C6298DB220754F95228B670324586A3BEB086C5D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14A29357-303C-4C2B-A20F-3B3C58E09891}"/>
+  <xr:revisionPtr revIDLastSave="424" documentId="11_C6298DB220754F95228B670324586A3BEB086C5D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1204468-5207-4CCE-B705-FBB8EDFDBC52}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Versionierung" sheetId="1" r:id="rId1"/>
     <sheet name="Anforderungen" sheetId="2" r:id="rId2"/>
+    <sheet name="Anforderungsliste Abbildung" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="103">
   <si>
     <t>Technische Anforderungen / Spezifikationen</t>
   </si>
@@ -338,12 +339,31 @@
   <si>
     <t>3, 8, 9</t>
   </si>
+  <si>
+    <t>Display Auflösung</t>
+  </si>
+  <si>
+    <t>1920 x 1080</t>
+  </si>
+  <si>
+    <t>Pixel</t>
+  </si>
+  <si>
+    <t>1, 9, 4, 3, 13</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>- Anforderung Bildschirmauflösung hinzugefügt
+- Wert der Anforderung auf 1920 x 1080 Pixel festgelegt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -390,12 +410,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -427,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -512,12 +526,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -547,23 +585,156 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF996600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1059,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1295,7 @@
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="7">
         <v>11125432</v>
       </c>
       <c r="C6" s="8"/>
@@ -1144,8 +1315,8 @@
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="21">
-        <v>11223344</v>
+      <c r="B8" s="10">
+        <v>11122091</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -1168,7 +1339,7 @@
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1182,7 +1353,7 @@
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1196,7 +1367,7 @@
       <c r="A13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="s">
@@ -1210,13 +1381,13 @@
       <c r="A14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="21" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1224,7 +1395,7 @@
       <c r="A15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>88</v>
       </c>
       <c r="C15" t="s">
@@ -1238,7 +1409,7 @@
       <c r="A16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C16" t="s">
@@ -1252,18 +1423,32 @@
       <c r="A17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -1275,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A3" sqref="A3:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1706,7 +1891,7 @@
         <v>69</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
@@ -1714,21 +1899,53 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="30">
+        <v>13</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:E15">
+  <conditionalFormatting sqref="E4:E16">
     <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"nein"</formula>
     </cfRule>
@@ -1736,7 +1953,7 @@
       <formula>"ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F15">
+  <conditionalFormatting sqref="F4:F16">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"essenziell"</formula>
     </cfRule>
@@ -1747,12 +1964,12 @@
       <formula>"nice2have"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D15 G4:I15">
+  <conditionalFormatting sqref="C4:D16 G4:I16">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J15">
+  <conditionalFormatting sqref="J4:J16">
     <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>"Niedrig"</formula>
     </cfRule>
@@ -1774,6 +1991,7 @@
     <hyperlink ref="I9" r:id="rId8" xr:uid="{1E259159-E54B-41E1-B38A-ECCB87DC5E90}"/>
     <hyperlink ref="I12" r:id="rId9" xr:uid="{E12F9FDB-4542-4587-89FA-C720F34027E3}"/>
     <hyperlink ref="I13" r:id="rId10" xr:uid="{67B84029-3EA0-435E-B53B-297D9410F8B7}"/>
+    <hyperlink ref="I16" r:id="rId11" xr:uid="{F2290ACB-36E8-494C-A6F8-ABFC870E844E}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1784,27 +2002,319 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21596EA-01FE-49B4-A4FC-4A1C0E4F2FE4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>12</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>11</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3:E8">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"nein"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"ja"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F8">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"essenziell"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"wichtig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"nice2have"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D8 G3:I8">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J8">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"Niedrig"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"Mittel"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Hoch"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I6" r:id="rId1" xr:uid="{737BE9C6-ECEC-48A4-B762-2548550DF883}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{1A484924-61DA-4015-B535-BE9E5E17F45A}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{28E47931-80E6-4A8F-B91B-8A4A955E24C5}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{25446F05-2C94-4B20-8476-D075AF3E3B49}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CA7FC6A6D3293B4EBB8C7B700AACD5B1" ma:contentTypeVersion="7" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4d1eb3bfab4df3e1eb2a362e381dd0ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c3af68f-487b-4532-8d75-15d1498f69fb" xmlns:ns3="4fc79a47-31e4-4653-8b27-dca9a17ceac4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b29c3a0558db1be0213b6fe4cc7196a" ns2:_="" ns3:_="">
     <xsd:import namespace="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
@@ -1973,26 +2483,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D7F6ED1-E28B-4677-93D3-7636B77D9D1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
-    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4fc79a47-31e4-4653-8b27-dca9a17ceac4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c3af68f-487b-4532-8d75-15d1498f69fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9453F51-199E-49EC-85E6-A038B1EB71A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA8DDF9-B19B-4E1C-9696-463DA7EAC3A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2009,4 +2520,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D7F6ED1-E28B-4677-93D3-7636B77D9D1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4fc79a47-31e4-4653-8b27-dca9a17ceac4"/>
+    <ds:schemaRef ds:uri="3c3af68f-487b-4532-8d75-15d1498f69fb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9453F51-199E-49EC-85E6-A038B1EB71A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>